--- a/data/pca/factorExposure/factorExposure_2018-10-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-10-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.03945995650698561</v>
+        <v>0.03532423186202379</v>
       </c>
       <c r="C2">
-        <v>-0.05156213897981052</v>
+        <v>0.005888878887886441</v>
       </c>
       <c r="D2">
-        <v>0.03064686794199945</v>
+        <v>0.01082084394291038</v>
       </c>
       <c r="E2">
-        <v>0.05974134854809229</v>
+        <v>-0.01596220803968279</v>
       </c>
       <c r="F2">
-        <v>0.1332827705625205</v>
+        <v>0.02735762494324343</v>
       </c>
       <c r="G2">
-        <v>0.114081512922364</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.07554283848227532</v>
+      </c>
+      <c r="H2">
+        <v>-0.02070365254361819</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.139179845538246</v>
+        <v>0.08742490540419087</v>
       </c>
       <c r="C3">
-        <v>-0.01213722060282152</v>
+        <v>-0.03744638605906427</v>
       </c>
       <c r="D3">
-        <v>0.03162518195190576</v>
+        <v>0.02723053254000194</v>
       </c>
       <c r="E3">
-        <v>0.09255957008793253</v>
+        <v>-0.01065117496666714</v>
       </c>
       <c r="F3">
-        <v>0.3547354218590866</v>
+        <v>-0.002722730612906136</v>
       </c>
       <c r="G3">
-        <v>0.2609085465665789</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.2672825625888693</v>
+      </c>
+      <c r="H3">
+        <v>-0.0443211539277498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04430352395553054</v>
+        <v>0.04456455210824416</v>
       </c>
       <c r="C4">
-        <v>-0.03494233766061196</v>
+        <v>-0.00517966490086832</v>
       </c>
       <c r="D4">
-        <v>-0.008517545673008746</v>
+        <v>0.02239618362083553</v>
       </c>
       <c r="E4">
-        <v>0.06675224898236523</v>
+        <v>0.01971958897225635</v>
       </c>
       <c r="F4">
-        <v>0.0574168964405966</v>
+        <v>0.0643151401353209</v>
       </c>
       <c r="G4">
-        <v>0.05544746898831009</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.0388507293294555</v>
+      </c>
+      <c r="H4">
+        <v>-0.02970847316383328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.009793029808528537</v>
+        <v>0.03014040935000808</v>
       </c>
       <c r="C6">
-        <v>-0.001356494315585943</v>
+        <v>-0.003880234273408441</v>
       </c>
       <c r="D6">
-        <v>0.009915261003896668</v>
+        <v>0.03059853901356736</v>
       </c>
       <c r="E6">
-        <v>0.00730427697976416</v>
+        <v>0.002881522613187803</v>
       </c>
       <c r="F6">
-        <v>0.01225758219406222</v>
+        <v>0.0403027656656119</v>
       </c>
       <c r="G6">
-        <v>-0.01539720033311943</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.005756891130150547</v>
+      </c>
+      <c r="H6">
+        <v>-0.05132555931770138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02677857875808875</v>
+        <v>0.02309707274468602</v>
       </c>
       <c r="C7">
-        <v>-0.01902239207444624</v>
+        <v>-0.003437128022792196</v>
       </c>
       <c r="D7">
-        <v>0.02557407859704803</v>
+        <v>0.01750778773104041</v>
       </c>
       <c r="E7">
-        <v>0.04268377696774362</v>
+        <v>0.03448889615637547</v>
       </c>
       <c r="F7">
-        <v>0.06851915040909001</v>
+        <v>0.02674836540253425</v>
       </c>
       <c r="G7">
-        <v>0.05775404275756326</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.03223661608295864</v>
+      </c>
+      <c r="H7">
+        <v>-0.01911777896002465</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.008757520300616816</v>
+        <v>0.002279660242483495</v>
       </c>
       <c r="C8">
-        <v>-0.007220886699677028</v>
+        <v>-0.001288773889036078</v>
       </c>
       <c r="D8">
-        <v>-0.008022384994499823</v>
+        <v>0.01592104886379516</v>
       </c>
       <c r="E8">
-        <v>0.07332869779461319</v>
+        <v>0.01175431823901801</v>
       </c>
       <c r="F8">
-        <v>0.09103062182311938</v>
+        <v>0.0287903059293879</v>
       </c>
       <c r="G8">
-        <v>0.06742579666206221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.05006615097597061</v>
+      </c>
+      <c r="H8">
+        <v>-0.01097090909589757</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03584591236238734</v>
+        <v>0.0359971241992869</v>
       </c>
       <c r="C9">
-        <v>-0.02771817085517739</v>
+        <v>-0.007714158350739743</v>
       </c>
       <c r="D9">
-        <v>-0.02296030500009883</v>
+        <v>0.01976667653736269</v>
       </c>
       <c r="E9">
-        <v>0.06863892952389761</v>
+        <v>0.01866524324853774</v>
       </c>
       <c r="F9">
-        <v>0.07075525790333401</v>
+        <v>0.04102115858422917</v>
       </c>
       <c r="G9">
-        <v>0.0384625499013371</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.05789497567545446</v>
+      </c>
+      <c r="H9">
+        <v>-0.0330501225466077</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.05169791866735517</v>
+        <v>0.07061139236263203</v>
       </c>
       <c r="C10">
-        <v>-0.05641383986138879</v>
+        <v>-0.04102731744389997</v>
       </c>
       <c r="D10">
-        <v>-0.01722104162648696</v>
+        <v>-0.1454029465803099</v>
       </c>
       <c r="E10">
-        <v>-0.1179886304677757</v>
+        <v>-0.01213347351942296</v>
       </c>
       <c r="F10">
-        <v>0.06270637515233349</v>
+        <v>-0.08933366004928664</v>
       </c>
       <c r="G10">
-        <v>-0.009884101576426526</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.0381550926084321</v>
+      </c>
+      <c r="H10">
+        <v>-0.009992997707593026</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.0313447532024573</v>
+        <v>0.02210863082064562</v>
       </c>
       <c r="C11">
-        <v>-0.01115127493541036</v>
+        <v>-0.01420513900413921</v>
       </c>
       <c r="D11">
-        <v>0.01190668277357052</v>
+        <v>0.02969998543403831</v>
       </c>
       <c r="E11">
-        <v>0.03409432263756806</v>
+        <v>-0.005545197843286899</v>
       </c>
       <c r="F11">
-        <v>0.03694791849077705</v>
+        <v>0.02598465552902544</v>
       </c>
       <c r="G11">
-        <v>0.02052027057784946</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.03090255664097802</v>
+      </c>
+      <c r="H11">
+        <v>-0.02947433627186901</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03867219629203741</v>
+        <v>0.03080278295717954</v>
       </c>
       <c r="C12">
-        <v>-0.01164194903424429</v>
+        <v>-0.0143062877798872</v>
       </c>
       <c r="D12">
-        <v>0.002138273561043505</v>
+        <v>0.0302924337829268</v>
       </c>
       <c r="E12">
-        <v>0.04741897807627291</v>
+        <v>0.004605550016464878</v>
       </c>
       <c r="F12">
-        <v>0.02411335550890875</v>
+        <v>0.02931459314065315</v>
       </c>
       <c r="G12">
-        <v>0.01377789012094324</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.005944570755118157</v>
+      </c>
+      <c r="H12">
+        <v>-0.01617845886116258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.02149412962103388</v>
+        <v>0.02829396354403441</v>
       </c>
       <c r="C13">
-        <v>-0.02044014182631177</v>
+        <v>0.007124272704292739</v>
       </c>
       <c r="D13">
-        <v>0.03122843377910036</v>
+        <v>0.002191394492096013</v>
       </c>
       <c r="E13">
-        <v>0.0287456855559741</v>
+        <v>-0.01617620235298356</v>
       </c>
       <c r="F13">
-        <v>0.0826722208230514</v>
+        <v>0.02052649205891767</v>
       </c>
       <c r="G13">
-        <v>0.05899728774757233</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.05813021696088835</v>
+      </c>
+      <c r="H13">
+        <v>-0.02795182546362132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01259803537506602</v>
+        <v>0.01598595676334297</v>
       </c>
       <c r="C14">
-        <v>-0.02197022840044865</v>
+        <v>-0.003896454311768888</v>
       </c>
       <c r="D14">
-        <v>0.001945170993711778</v>
+        <v>0.001316422298685379</v>
       </c>
       <c r="E14">
-        <v>0.0405621703860902</v>
+        <v>0.00697239953229368</v>
       </c>
       <c r="F14">
-        <v>0.06276636643017035</v>
+        <v>0.02712099277210752</v>
       </c>
       <c r="G14">
-        <v>0.06144370858171203</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.0381409649118776</v>
+      </c>
+      <c r="H14">
+        <v>0.01904431445041347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.0249947722997168</v>
+        <v>0.02248320590900926</v>
       </c>
       <c r="C16">
-        <v>-0.01214522128768638</v>
+        <v>-0.01443865045487001</v>
       </c>
       <c r="D16">
-        <v>0.01101609665990716</v>
+        <v>0.02966707495425599</v>
       </c>
       <c r="E16">
-        <v>0.03670156746801038</v>
+        <v>-0.0009737365546407068</v>
       </c>
       <c r="F16">
-        <v>0.03777528017787759</v>
+        <v>0.02886553932698021</v>
       </c>
       <c r="G16">
-        <v>0.02697548187960799</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.02414089020094383</v>
+      </c>
+      <c r="H16">
+        <v>-0.02260343498676201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.03508836881694898</v>
+        <v>0.03404467616665617</v>
       </c>
       <c r="C19">
-        <v>-0.01296841971873424</v>
+        <v>-0.008458701204216464</v>
       </c>
       <c r="D19">
-        <v>0.0175428985489505</v>
+        <v>0.007320558322591914</v>
       </c>
       <c r="E19">
-        <v>0.04250405838673157</v>
+        <v>-0.002660961478175113</v>
       </c>
       <c r="F19">
-        <v>0.09510705470155811</v>
+        <v>0.03244891990155658</v>
       </c>
       <c r="G19">
-        <v>0.06434390806947622</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.0611785438010541</v>
+      </c>
+      <c r="H19">
+        <v>-0.04043318757394072</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.001352852153994794</v>
+        <v>0.009524353524069228</v>
       </c>
       <c r="C20">
-        <v>-0.01527357561738393</v>
+        <v>0.005311102785395932</v>
       </c>
       <c r="D20">
-        <v>0.002600644993418838</v>
+        <v>0.007743966853754868</v>
       </c>
       <c r="E20">
-        <v>0.04326079300585271</v>
+        <v>0.002685587762625924</v>
       </c>
       <c r="F20">
-        <v>0.05707705305724523</v>
+        <v>0.01783733883077323</v>
       </c>
       <c r="G20">
-        <v>0.07382129045874851</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.04556301708184194</v>
+      </c>
+      <c r="H20">
+        <v>0.0101822848721794</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.001549109873812452</v>
+        <v>0.02197662116090177</v>
       </c>
       <c r="C21">
-        <v>0.002334608303349016</v>
+        <v>0.001419160380444158</v>
       </c>
       <c r="D21">
-        <v>0.008388795421701857</v>
+        <v>-0.0006173844027278279</v>
       </c>
       <c r="E21">
-        <v>0.03633033278236229</v>
+        <v>0.01144082853936818</v>
       </c>
       <c r="F21">
-        <v>0.08838884194905192</v>
+        <v>0.009244904480359074</v>
       </c>
       <c r="G21">
-        <v>0.02650072322228355</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.05443986095465466</v>
+      </c>
+      <c r="H21">
+        <v>-0.01342415950390341</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02670596787866757</v>
+        <v>0.02295682346066715</v>
       </c>
       <c r="C24">
-        <v>-0.01065106177787937</v>
+        <v>-0.009415046012700247</v>
       </c>
       <c r="D24">
-        <v>0.007679823899431032</v>
+        <v>0.02735272495062932</v>
       </c>
       <c r="E24">
-        <v>0.02984299949275642</v>
+        <v>-0.0007580091967361863</v>
       </c>
       <c r="F24">
-        <v>0.04014017979613434</v>
+        <v>0.02342612885514963</v>
       </c>
       <c r="G24">
-        <v>0.01326767758437452</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.02568427355791673</v>
+      </c>
+      <c r="H24">
+        <v>-0.03022585876186853</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.02908682806765831</v>
+        <v>0.03277389280670844</v>
       </c>
       <c r="C25">
-        <v>-0.009898723814746576</v>
+        <v>-0.009718407616679676</v>
       </c>
       <c r="D25">
-        <v>0.005701897082607174</v>
+        <v>0.02083136875356039</v>
       </c>
       <c r="E25">
-        <v>0.03496744406622904</v>
+        <v>-0.0002386442190004931</v>
       </c>
       <c r="F25">
-        <v>0.04358852850628401</v>
+        <v>0.0280211995390761</v>
       </c>
       <c r="G25">
-        <v>0.005698949219344495</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.03124437743119519</v>
+      </c>
+      <c r="H25">
+        <v>-0.03303841052344298</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01708841536702332</v>
+        <v>0.02049086304484784</v>
       </c>
       <c r="C26">
-        <v>0.0001954238395546206</v>
+        <v>0.01429763389361215</v>
       </c>
       <c r="D26">
-        <v>0.03241753147202722</v>
+        <v>0.008017985399813063</v>
       </c>
       <c r="E26">
-        <v>0.04743083475133784</v>
+        <v>-0.006040560124086405</v>
       </c>
       <c r="F26">
-        <v>0.05908523020933555</v>
+        <v>0.006890120396704555</v>
       </c>
       <c r="G26">
-        <v>0.03440018022024268</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.03564108869736058</v>
+      </c>
+      <c r="H26">
+        <v>-0.003476095917495633</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.07055530317265366</v>
+        <v>0.03150367657642174</v>
       </c>
       <c r="C27">
-        <v>-0.05154826306381067</v>
+        <v>-0.02062104919910242</v>
       </c>
       <c r="D27">
-        <v>-0.007210663109946843</v>
+        <v>0.001092833151580678</v>
       </c>
       <c r="E27">
-        <v>0.04881115963580201</v>
+        <v>0.003100389545032179</v>
       </c>
       <c r="F27">
-        <v>0.0612674674322371</v>
+        <v>0.02458803077795837</v>
       </c>
       <c r="G27">
-        <v>0.05800724665971337</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.02575527924351055</v>
+      </c>
+      <c r="H27">
+        <v>-0.001006917095655864</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.07475446378637972</v>
+        <v>0.1114974461137399</v>
       </c>
       <c r="C28">
-        <v>-0.07347403908386706</v>
+        <v>-0.04961442713213361</v>
       </c>
       <c r="D28">
-        <v>-0.03696044287870724</v>
+        <v>-0.2156074645601227</v>
       </c>
       <c r="E28">
-        <v>-0.1880865263844669</v>
+        <v>-0.01234780956992195</v>
       </c>
       <c r="F28">
-        <v>0.06109152975172034</v>
+        <v>-0.127529144883015</v>
       </c>
       <c r="G28">
-        <v>0.01934523532378045</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.01929361654826858</v>
+      </c>
+      <c r="H28">
+        <v>0.00398900610114384</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.01981157910798636</v>
+        <v>0.02092103277622491</v>
       </c>
       <c r="C29">
-        <v>-0.02232832284937504</v>
+        <v>-0.007193680437762341</v>
       </c>
       <c r="D29">
-        <v>-0.003142318867271653</v>
+        <v>0.003564157129880562</v>
       </c>
       <c r="E29">
-        <v>0.05903680448193321</v>
+        <v>0.007905579792501177</v>
       </c>
       <c r="F29">
-        <v>0.054382219241942</v>
+        <v>0.0292176379294474</v>
       </c>
       <c r="G29">
-        <v>0.05761219770003406</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.03257435701018835</v>
+      </c>
+      <c r="H29">
+        <v>0.01717823780981789</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.07963532607037048</v>
+        <v>0.05977464448416131</v>
       </c>
       <c r="C30">
-        <v>-0.05744353044449227</v>
+        <v>-0.01221641637034579</v>
       </c>
       <c r="D30">
-        <v>0.03475061466003098</v>
+        <v>0.04504133538523612</v>
       </c>
       <c r="E30">
-        <v>0.09968017003347331</v>
+        <v>-0.04186011134973076</v>
       </c>
       <c r="F30">
-        <v>0.07499391729122865</v>
+        <v>0.07888230370908238</v>
       </c>
       <c r="G30">
-        <v>0.02900209943011877</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.06600970446697248</v>
+      </c>
+      <c r="H30">
+        <v>-0.04661180820754648</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.05565511651754954</v>
+        <v>0.05108848287765418</v>
       </c>
       <c r="C31">
-        <v>-0.02287583944079784</v>
+        <v>-0.02693162819506992</v>
       </c>
       <c r="D31">
-        <v>0.04438534824760705</v>
+        <v>0.01589367090962184</v>
       </c>
       <c r="E31">
-        <v>0.03152741334861733</v>
+        <v>-0.01232299677126797</v>
       </c>
       <c r="F31">
-        <v>0.03651952421984567</v>
+        <v>0.02222960040379104</v>
       </c>
       <c r="G31">
-        <v>0.08336791319488146</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.01449029483731219</v>
+      </c>
+      <c r="H31">
+        <v>0.01494264308454833</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.01240621586862334</v>
+        <v>0.004431244265653832</v>
       </c>
       <c r="C32">
-        <v>-0.02050204553957595</v>
+        <v>-0.01490822129069356</v>
       </c>
       <c r="D32">
-        <v>-0.006957024030616814</v>
+        <v>-0.002114575559879641</v>
       </c>
       <c r="E32">
-        <v>0.08221678376896968</v>
+        <v>0.01930089212964952</v>
       </c>
       <c r="F32">
-        <v>0.07071743406388308</v>
+        <v>0.04738466468876475</v>
       </c>
       <c r="G32">
-        <v>0.04611412088949692</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.04198968602703699</v>
+      </c>
+      <c r="H32">
+        <v>-0.04239846459108928</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.04855304390211656</v>
+        <v>0.03861029456228371</v>
       </c>
       <c r="C33">
-        <v>-0.004440795508054151</v>
+        <v>-0.009536027616822373</v>
       </c>
       <c r="D33">
-        <v>0.03984738502216945</v>
+        <v>0.02868310418019543</v>
       </c>
       <c r="E33">
-        <v>0.06778153551944362</v>
+        <v>-0.02406645945070054</v>
       </c>
       <c r="F33">
-        <v>0.09205866295094893</v>
+        <v>0.01749886785368971</v>
       </c>
       <c r="G33">
-        <v>0.04835667951539303</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.05670198871525527</v>
+      </c>
+      <c r="H33">
+        <v>-0.0218860157654223</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.02818093199238475</v>
+        <v>0.02417746712525011</v>
       </c>
       <c r="C34">
-        <v>-0.01718696996046527</v>
+        <v>-0.02315660847562926</v>
       </c>
       <c r="D34">
-        <v>0.009044928359128807</v>
+        <v>0.02523203847019119</v>
       </c>
       <c r="E34">
-        <v>0.03806577241071325</v>
+        <v>0.003283465370491462</v>
       </c>
       <c r="F34">
-        <v>0.04513159434873409</v>
+        <v>0.0284764562809118</v>
       </c>
       <c r="G34">
-        <v>0.01078474368328339</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.02435744083342524</v>
+      </c>
+      <c r="H34">
+        <v>-0.0281785092822042</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01213757600186842</v>
+        <v>0.01826009650131323</v>
       </c>
       <c r="C36">
-        <v>-0.0100087007978946</v>
+        <v>0.000891639692755433</v>
       </c>
       <c r="D36">
-        <v>0.000124012206817373</v>
+        <v>-0.001237095882861628</v>
       </c>
       <c r="E36">
-        <v>0.0303177468017674</v>
+        <v>0.002525359945874198</v>
       </c>
       <c r="F36">
-        <v>0.03283232713506069</v>
+        <v>0.007327048379553435</v>
       </c>
       <c r="G36">
-        <v>0.03273541252833856</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.02101845954356401</v>
+      </c>
+      <c r="H36">
+        <v>0.001067080514965741</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.005626743786102977</v>
+        <v>0.01288742485863556</v>
       </c>
       <c r="C38">
-        <v>0.002258316812734263</v>
+        <v>-0.01802412146636007</v>
       </c>
       <c r="D38">
-        <v>-0.01547605762665147</v>
+        <v>-0.0006531642016612273</v>
       </c>
       <c r="E38">
-        <v>-0.005771945240829062</v>
+        <v>0.006899842872104749</v>
       </c>
       <c r="F38">
-        <v>0.008456308860563998</v>
+        <v>0.009681403580905527</v>
       </c>
       <c r="G38">
-        <v>-0.001728716734576134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02431524811419322</v>
+      </c>
+      <c r="H38">
+        <v>-0.02069877123669359</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.03604772841955999</v>
+        <v>0.026072871501485</v>
       </c>
       <c r="C39">
-        <v>-0.02349654610180664</v>
+        <v>-0.009200178811043989</v>
       </c>
       <c r="D39">
-        <v>0.02559649600673917</v>
+        <v>0.06026095980861076</v>
       </c>
       <c r="E39">
-        <v>0.03669147364115283</v>
+        <v>-0.006219067401012988</v>
       </c>
       <c r="F39">
-        <v>0.04969209012514593</v>
+        <v>0.05187754402913083</v>
       </c>
       <c r="G39">
-        <v>0.02122987631851571</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.04753395331304915</v>
+      </c>
+      <c r="H39">
+        <v>-0.05223369691491796</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.02849578876836607</v>
+        <v>0.03078276337802715</v>
       </c>
       <c r="C40">
-        <v>-0.03816146817103621</v>
+        <v>-0.00860901773842776</v>
       </c>
       <c r="D40">
-        <v>0.04795470595279221</v>
+        <v>0.0192125255590288</v>
       </c>
       <c r="E40">
-        <v>0.05113632566817564</v>
+        <v>-0.02064401766856455</v>
       </c>
       <c r="F40">
-        <v>0.0754554129642615</v>
+        <v>0.03971070803411057</v>
       </c>
       <c r="G40">
-        <v>0.07569630338823277</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.03420477494138921</v>
+      </c>
+      <c r="H40">
+        <v>-0.04977567230881242</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.004473122015524193</v>
+        <v>0.006913939680936189</v>
       </c>
       <c r="C41">
-        <v>0.008228197425459913</v>
+        <v>0.0004211696085317305</v>
       </c>
       <c r="D41">
-        <v>0.006263349379197113</v>
+        <v>-0.006235050329696415</v>
       </c>
       <c r="E41">
-        <v>0.01866728367049316</v>
+        <v>-0.001003833605156462</v>
       </c>
       <c r="F41">
-        <v>0.01837632889480979</v>
+        <v>-0.005658769523083017</v>
       </c>
       <c r="G41">
-        <v>0.05905958588400279</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.006371828894108852</v>
+      </c>
+      <c r="H41">
+        <v>0.01805866908953731</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.4052312955632036</v>
+        <v>0.2465632172047485</v>
       </c>
       <c r="C42">
-        <v>0.8616992104498921</v>
+        <v>0.04316099810184378</v>
       </c>
       <c r="D42">
-        <v>0.2085792297301421</v>
+        <v>0.6104923331374369</v>
       </c>
       <c r="E42">
-        <v>-0.126692073748743</v>
+        <v>-0.1321215513096946</v>
       </c>
       <c r="F42">
-        <v>-0.02455163812354233</v>
+        <v>-0.7224895581700729</v>
       </c>
       <c r="G42">
-        <v>0.001368723532200788</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.07561422806059086</v>
+      </c>
+      <c r="H42">
+        <v>-0.03596307304130313</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01062718211199696</v>
+        <v>0.004848520498371494</v>
       </c>
       <c r="C43">
-        <v>0.004004235633797058</v>
+        <v>0.003025480910363903</v>
       </c>
       <c r="D43">
-        <v>0.01081400022891052</v>
+        <v>-0.008256751352674375</v>
       </c>
       <c r="E43">
-        <v>0.02098559587281185</v>
+        <v>-0.004786752817156128</v>
       </c>
       <c r="F43">
-        <v>0.03446805378651744</v>
+        <v>-0.009606209787660597</v>
       </c>
       <c r="G43">
-        <v>0.0550590093922155</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.01462095341604776</v>
+      </c>
+      <c r="H43">
+        <v>0.01123496301850612</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01887945715242787</v>
+        <v>0.01162526850049291</v>
       </c>
       <c r="C44">
-        <v>-0.004595473460293982</v>
+        <v>-0.001882282732305884</v>
       </c>
       <c r="D44">
-        <v>0.01955420204051783</v>
+        <v>0.02651420909141415</v>
       </c>
       <c r="E44">
-        <v>0.06640053564647876</v>
+        <v>0.002109362990929061</v>
       </c>
       <c r="F44">
-        <v>0.1826481627980305</v>
+        <v>0.01068527698730799</v>
       </c>
       <c r="G44">
-        <v>0.1807803535987282</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.08433274675379793</v>
+      </c>
+      <c r="H44">
+        <v>-0.01868877717523653</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01658645075981025</v>
+        <v>0.0216167737760625</v>
       </c>
       <c r="C46">
-        <v>-0.02149629778021904</v>
+        <v>-0.003397904448936442</v>
       </c>
       <c r="D46">
-        <v>0.01314779190688336</v>
+        <v>0.005801483768706094</v>
       </c>
       <c r="E46">
-        <v>0.05560836430669019</v>
+        <v>-0.004200424709802464</v>
       </c>
       <c r="F46">
-        <v>0.05794164436875544</v>
+        <v>0.03438579416795488</v>
       </c>
       <c r="G46">
-        <v>0.04313791773792881</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.04783797531959456</v>
+      </c>
+      <c r="H46">
+        <v>0.01441337563191216</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09152339032486589</v>
+        <v>0.07035417114240669</v>
       </c>
       <c r="C47">
-        <v>-0.0375705797362475</v>
+        <v>-0.04795952565058392</v>
       </c>
       <c r="D47">
-        <v>0.02272195962516282</v>
+        <v>0.01907001089007051</v>
       </c>
       <c r="E47">
-        <v>0.04824247979082799</v>
+        <v>-0.008693278259519332</v>
       </c>
       <c r="F47">
-        <v>-0.0006454443825004828</v>
+        <v>0.03307412073458322</v>
       </c>
       <c r="G47">
-        <v>0.07222949266739609</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.01755126423801076</v>
+      </c>
+      <c r="H47">
+        <v>0.03012214890756742</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.006931783297491731</v>
+        <v>0.01560020307676456</v>
       </c>
       <c r="C48">
-        <v>-0.005374483645924112</v>
+        <v>-0.008501163588158313</v>
       </c>
       <c r="D48">
-        <v>0.01137051709870229</v>
+        <v>0.004504673357586541</v>
       </c>
       <c r="E48">
-        <v>0.04450129949885959</v>
+        <v>-0.001446087724776899</v>
       </c>
       <c r="F48">
-        <v>0.04832933316085884</v>
+        <v>0.01266606086319273</v>
       </c>
       <c r="G48">
-        <v>0.00957726933151094</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02628332312545711</v>
+      </c>
+      <c r="H48">
+        <v>-0.004970363042307103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.0840857172975423</v>
+        <v>0.06493598222924542</v>
       </c>
       <c r="C50">
-        <v>-0.02317722038777817</v>
+        <v>-0.0412808324871167</v>
       </c>
       <c r="D50">
-        <v>0.03570536415867842</v>
+        <v>0.03369154552549006</v>
       </c>
       <c r="E50">
-        <v>0.0519567237853141</v>
+        <v>0.004338200019056933</v>
       </c>
       <c r="F50">
-        <v>0.0233213127988148</v>
+        <v>0.03254250902086343</v>
       </c>
       <c r="G50">
-        <v>0.0108069042380904</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.01497478690476424</v>
+      </c>
+      <c r="H50">
+        <v>0.02366908728455891</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.03995040255312916</v>
+        <v>0.02580895694309486</v>
       </c>
       <c r="C51">
-        <v>0.0007321035309910299</v>
+        <v>-0.006315694198621252</v>
       </c>
       <c r="D51">
-        <v>0.0449872390659765</v>
+        <v>-0.002847705892310282</v>
       </c>
       <c r="E51">
-        <v>0.02236765719825768</v>
+        <v>-0.0131689218721251</v>
       </c>
       <c r="F51">
-        <v>0.1554358921468063</v>
+        <v>-0.0171127560666911</v>
       </c>
       <c r="G51">
-        <v>0.07506620932032884</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.08247979631545416</v>
+      </c>
+      <c r="H51">
+        <v>-0.02772907170575639</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1022045146959184</v>
+        <v>0.09178176350087593</v>
       </c>
       <c r="C53">
-        <v>-0.04988886746436758</v>
+        <v>-0.06157995181813054</v>
       </c>
       <c r="D53">
-        <v>0.03979316760988985</v>
+        <v>0.04219856515694582</v>
       </c>
       <c r="E53">
-        <v>0.06168022668596774</v>
+        <v>-0.008554131078249901</v>
       </c>
       <c r="F53">
-        <v>-0.06096546536705787</v>
+        <v>0.06667570038369094</v>
       </c>
       <c r="G53">
-        <v>0.03061728422380559</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.06050764910944852</v>
+      </c>
+      <c r="H53">
+        <v>0.03538586306426925</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02146904379137758</v>
+        <v>0.02098042960320375</v>
       </c>
       <c r="C54">
-        <v>-0.03927144683802276</v>
+        <v>-0.01814995684491691</v>
       </c>
       <c r="D54">
-        <v>0.001315678554015609</v>
+        <v>-0.02318291479886263</v>
       </c>
       <c r="E54">
-        <v>0.03580575431794346</v>
+        <v>0.00330655343530972</v>
       </c>
       <c r="F54">
-        <v>0.07072583774859935</v>
+        <v>0.01348669292033386</v>
       </c>
       <c r="G54">
-        <v>0.06221717399818408</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.04065952705937926</v>
+      </c>
+      <c r="H54">
+        <v>0.02212948667804483</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1007823677688197</v>
+        <v>0.07954345859155869</v>
       </c>
       <c r="C55">
-        <v>-0.03550530925931174</v>
+        <v>-0.05418615726378614</v>
       </c>
       <c r="D55">
-        <v>-0.005247952048374907</v>
+        <v>0.04328425822186775</v>
       </c>
       <c r="E55">
-        <v>0.06147194019160235</v>
+        <v>0.004575880883214838</v>
       </c>
       <c r="F55">
-        <v>-0.05663728173145367</v>
+        <v>0.05592319575883425</v>
       </c>
       <c r="G55">
-        <v>0.0520545273409766</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.03807504020437268</v>
+      </c>
+      <c r="H55">
+        <v>0.05068499470557712</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1396108961334257</v>
+        <v>0.1196661752370238</v>
       </c>
       <c r="C56">
-        <v>-0.07702411671296984</v>
+        <v>-0.08722958589487267</v>
       </c>
       <c r="D56">
-        <v>0.02157390582190983</v>
+        <v>0.05497753917789055</v>
       </c>
       <c r="E56">
-        <v>0.07980769103111489</v>
+        <v>-0.004780951842282077</v>
       </c>
       <c r="F56">
-        <v>-0.1610737282564004</v>
+        <v>0.0924747697314821</v>
       </c>
       <c r="G56">
-        <v>0.0127822492808638</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.1034832870970596</v>
+      </c>
+      <c r="H56">
+        <v>0.02721560584943043</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04011140228250026</v>
+        <v>0.04156089684489665</v>
       </c>
       <c r="C57">
-        <v>-0.01699384558347926</v>
+        <v>0.0006699323342737718</v>
       </c>
       <c r="D57">
-        <v>0.02869681914042586</v>
+        <v>0.01784523365001791</v>
       </c>
       <c r="E57">
-        <v>0.02361459144108699</v>
+        <v>-0.0129402347009676</v>
       </c>
       <c r="F57">
-        <v>0.07659778257283352</v>
+        <v>0.02713800643999301</v>
       </c>
       <c r="G57">
-        <v>0.03488646097794768</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.06458859210071599</v>
+      </c>
+      <c r="H57">
+        <v>-0.01439561455003795</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.2063844828002299</v>
+        <v>0.1527305281275916</v>
       </c>
       <c r="C58">
-        <v>-0.06843887864012921</v>
+        <v>-0.08468830274680575</v>
       </c>
       <c r="D58">
-        <v>0.1096383785103942</v>
+        <v>0.1109037211404673</v>
       </c>
       <c r="E58">
-        <v>0.1935536450759296</v>
+        <v>-0.1297492001604816</v>
       </c>
       <c r="F58">
-        <v>0.3139755601976474</v>
+        <v>0.06774544863443749</v>
       </c>
       <c r="G58">
-        <v>-0.3352549344611669</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.68276318761954</v>
+      </c>
+      <c r="H58">
+        <v>0.554743081837981</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.0746272125898204</v>
+        <v>0.1127174684490869</v>
       </c>
       <c r="C59">
-        <v>-0.09519022067501004</v>
+        <v>-0.05732814499191009</v>
       </c>
       <c r="D59">
-        <v>-0.03325562435069489</v>
+        <v>-0.2109261289670005</v>
       </c>
       <c r="E59">
-        <v>-0.1450177131410106</v>
+        <v>-0.02655982677022591</v>
       </c>
       <c r="F59">
-        <v>0.0580552101842803</v>
+        <v>-0.1033989828644615</v>
       </c>
       <c r="G59">
-        <v>0.01010946396198062</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.02701990857463517</v>
+      </c>
+      <c r="H59">
+        <v>-0.02591396871014759</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1634261398146876</v>
+        <v>0.1572229813625456</v>
       </c>
       <c r="C60">
-        <v>-0.07778915166389057</v>
+        <v>-0.07577988962412839</v>
       </c>
       <c r="D60">
-        <v>0.06117711215617408</v>
+        <v>-0.008872371132172449</v>
       </c>
       <c r="E60">
-        <v>0.01991873533308334</v>
+        <v>-0.05582055975160986</v>
       </c>
       <c r="F60">
-        <v>0.09985112573925807</v>
+        <v>0.07487802547760948</v>
       </c>
       <c r="G60">
-        <v>-0.2783227061115849</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.1281325284830888</v>
+      </c>
+      <c r="H60">
+        <v>-0.3576500887902663</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.01921045729046748</v>
+        <v>0.02189015600504565</v>
       </c>
       <c r="C61">
-        <v>-0.01098783310156594</v>
+        <v>-0.01229859281339783</v>
       </c>
       <c r="D61">
-        <v>0.002870419902861708</v>
+        <v>0.0315534383400533</v>
       </c>
       <c r="E61">
-        <v>0.02159703340181067</v>
+        <v>0.0005978387670562214</v>
       </c>
       <c r="F61">
-        <v>0.0421813367253508</v>
+        <v>0.03641458401635227</v>
       </c>
       <c r="G61">
-        <v>0.00597817122751383</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.0303955703374909</v>
+      </c>
+      <c r="H61">
+        <v>-0.03878624726020257</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01461516690496666</v>
+        <v>0.01405882863661769</v>
       </c>
       <c r="C63">
-        <v>-0.01686339936569601</v>
+        <v>-0.00192078206318495</v>
       </c>
       <c r="D63">
-        <v>0.0115446564963273</v>
+        <v>0.005327693682985078</v>
       </c>
       <c r="E63">
-        <v>0.04310492076421145</v>
+        <v>0.000831641093598994</v>
       </c>
       <c r="F63">
-        <v>0.02035204405698236</v>
+        <v>0.02230352260264189</v>
       </c>
       <c r="G63">
-        <v>0.03228646862274903</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01640826672709043</v>
+      </c>
+      <c r="H63">
+        <v>0.007615069471183632</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.02837953458163497</v>
+        <v>0.03868826796405798</v>
       </c>
       <c r="C64">
-        <v>-0.02110903324981141</v>
+        <v>-0.02008272049986676</v>
       </c>
       <c r="D64">
-        <v>-0.02083901075843607</v>
+        <v>0.02644461283830818</v>
       </c>
       <c r="E64">
-        <v>0.04729371859832791</v>
+        <v>0.01066735636402906</v>
       </c>
       <c r="F64">
-        <v>0.02273556724496685</v>
+        <v>0.03218341505601348</v>
       </c>
       <c r="G64">
-        <v>0.06341624853984192</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.008002533130851062</v>
+      </c>
+      <c r="H64">
+        <v>-0.03091966024453971</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.009884155745106695</v>
+        <v>0.03538862378593013</v>
       </c>
       <c r="C65">
-        <v>0.0002026239595664379</v>
+        <v>-0.004695477123414138</v>
       </c>
       <c r="D65">
-        <v>0.008791097241160499</v>
+        <v>0.033797397265635</v>
       </c>
       <c r="E65">
-        <v>0.003187850089661055</v>
+        <v>0.002703792282232397</v>
       </c>
       <c r="F65">
-        <v>0.009019413044227315</v>
+        <v>0.04041182628502703</v>
       </c>
       <c r="G65">
-        <v>-0.01711680357902749</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.001385796629904755</v>
+      </c>
+      <c r="H65">
+        <v>-0.06041136189790595</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03816509448822111</v>
+        <v>0.03328937473829936</v>
       </c>
       <c r="C66">
-        <v>-0.02680288948259318</v>
+        <v>-0.01673438853433777</v>
       </c>
       <c r="D66">
-        <v>0.01993233759897821</v>
+        <v>0.06616538027635675</v>
       </c>
       <c r="E66">
-        <v>0.04781138573644806</v>
+        <v>-0.01273736069480644</v>
       </c>
       <c r="F66">
-        <v>0.04924233497545035</v>
+        <v>0.07202580082144217</v>
       </c>
       <c r="G66">
-        <v>0.01232518071132104</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.04138126214575276</v>
+      </c>
+      <c r="H66">
+        <v>-0.06316559354504286</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.02536359590296488</v>
+        <v>0.0317212744152932</v>
       </c>
       <c r="C67">
-        <v>-0.01003290075148028</v>
+        <v>-0.02565473444501622</v>
       </c>
       <c r="D67">
-        <v>-0.01626061237583133</v>
+        <v>-0.01035070688742891</v>
       </c>
       <c r="E67">
-        <v>-0.02920332659055508</v>
+        <v>0.002656865955802289</v>
       </c>
       <c r="F67">
-        <v>0.02008906648871286</v>
+        <v>0.01055599555467891</v>
       </c>
       <c r="G67">
-        <v>-0.003189022303488666</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.01607562937016577</v>
+      </c>
+      <c r="H67">
+        <v>-0.03378989752423443</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.08663209726337899</v>
+        <v>0.1175003185765693</v>
       </c>
       <c r="C68">
-        <v>-0.07939699101118042</v>
+        <v>-0.03636474439127722</v>
       </c>
       <c r="D68">
-        <v>-0.04604636335509404</v>
+        <v>-0.1970658726990133</v>
       </c>
       <c r="E68">
-        <v>-0.1809918715459078</v>
+        <v>-0.02246940992529022</v>
       </c>
       <c r="F68">
-        <v>0.009254826742677478</v>
+        <v>-0.1221814555126101</v>
       </c>
       <c r="G68">
-        <v>-0.04611629521728969</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01627538904361305</v>
+      </c>
+      <c r="H68">
+        <v>0.04772157865226923</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.0710868657240331</v>
+        <v>0.05489456320193987</v>
       </c>
       <c r="C69">
-        <v>-0.03791082016933309</v>
+        <v>-0.04259402101148768</v>
       </c>
       <c r="D69">
-        <v>0.02466486255512699</v>
+        <v>0.01635832271572934</v>
       </c>
       <c r="E69">
-        <v>0.01254661787969995</v>
+        <v>-0.00926095173652094</v>
       </c>
       <c r="F69">
-        <v>0.01960079467473524</v>
+        <v>0.03174726253111749</v>
       </c>
       <c r="G69">
-        <v>0.05932902353477787</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.004919260886387744</v>
+      </c>
+      <c r="H69">
+        <v>0.009378267046483976</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.1004865998334486</v>
+        <v>0.1133696745915313</v>
       </c>
       <c r="C71">
-        <v>-0.08323966530133277</v>
+        <v>-0.04492218546900301</v>
       </c>
       <c r="D71">
-        <v>-0.02124851752224912</v>
+        <v>-0.1855483320505205</v>
       </c>
       <c r="E71">
-        <v>-0.2296421730034606</v>
+        <v>-0.02608115790568653</v>
       </c>
       <c r="F71">
-        <v>0.04358932221783171</v>
+        <v>-0.1307764180988419</v>
       </c>
       <c r="G71">
-        <v>0.01043523056125617</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.02330415442164013</v>
+      </c>
+      <c r="H71">
+        <v>0.01809934638816577</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1026400376169057</v>
+        <v>0.08342280648452888</v>
       </c>
       <c r="C72">
-        <v>-0.118800877237396</v>
+        <v>-0.06562527100330938</v>
       </c>
       <c r="D72">
-        <v>0.01685683176908534</v>
+        <v>0.04459276982510374</v>
       </c>
       <c r="E72">
-        <v>0.0898559802447951</v>
+        <v>-0.01520723831628979</v>
       </c>
       <c r="F72">
-        <v>0.06734758441573555</v>
+        <v>0.1283510578533534</v>
       </c>
       <c r="G72">
-        <v>-0.1464486794493652</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.08197724322519907</v>
+      </c>
+      <c r="H72">
+        <v>-0.1416886092663438</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2426142993610603</v>
+        <v>0.2232813232250007</v>
       </c>
       <c r="C73">
-        <v>-0.1123762926226846</v>
+        <v>-0.1015638697853196</v>
       </c>
       <c r="D73">
-        <v>0.0599757882953498</v>
+        <v>0.01310623964926579</v>
       </c>
       <c r="E73">
-        <v>-0.02900413908513369</v>
+        <v>-0.09128040775160634</v>
       </c>
       <c r="F73">
-        <v>0.2154731325118185</v>
+        <v>0.08523544392924724</v>
       </c>
       <c r="G73">
-        <v>-0.4373110134684058</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1911101845638593</v>
+      </c>
+      <c r="H73">
+        <v>-0.5127329579942814</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1192529847991121</v>
+        <v>0.1065262667877436</v>
       </c>
       <c r="C74">
-        <v>-0.04170201573608464</v>
+        <v>-0.07698634672745981</v>
       </c>
       <c r="D74">
-        <v>0.0242919356849477</v>
+        <v>0.05340702767878906</v>
       </c>
       <c r="E74">
-        <v>0.0397606861256044</v>
+        <v>-0.01046006927187959</v>
       </c>
       <c r="F74">
-        <v>-0.1170362825493555</v>
+        <v>0.07339812215015697</v>
       </c>
       <c r="G74">
-        <v>0.01261602045327143</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.08994555069074017</v>
+      </c>
+      <c r="H74">
+        <v>0.001602633434134907</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2174075233310538</v>
+        <v>0.2130969882372603</v>
       </c>
       <c r="C75">
-        <v>-0.1176396199431996</v>
+        <v>-0.1562955518604298</v>
       </c>
       <c r="D75">
-        <v>0.06467774475104747</v>
+        <v>0.06346697158102392</v>
       </c>
       <c r="E75">
-        <v>0.0907881916148482</v>
+        <v>-0.03696480181529054</v>
       </c>
       <c r="F75">
-        <v>-0.1799675945253925</v>
+        <v>0.1434272768519774</v>
       </c>
       <c r="G75">
-        <v>0.07988098279819902</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1604935452909527</v>
+      </c>
+      <c r="H75">
+        <v>0.0911942890511154</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.256037217772242</v>
+        <v>0.2027888871207522</v>
       </c>
       <c r="C76">
-        <v>-0.133397412834094</v>
+        <v>-0.1527060525111431</v>
       </c>
       <c r="D76">
-        <v>0.006925738653672428</v>
+        <v>0.06610191015253698</v>
       </c>
       <c r="E76">
-        <v>0.07683753396591048</v>
+        <v>0.003916556929953378</v>
       </c>
       <c r="F76">
-        <v>-0.2085864642141964</v>
+        <v>0.149150450435192</v>
       </c>
       <c r="G76">
-        <v>0.08259322886680272</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1773252336724336</v>
+      </c>
+      <c r="H76">
+        <v>0.09851853863793204</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1351086019998147</v>
+        <v>0.07629772784312236</v>
       </c>
       <c r="C77">
-        <v>0.02133318667691436</v>
+        <v>-0.02794176850354877</v>
       </c>
       <c r="D77">
-        <v>0.06083543118448584</v>
+        <v>0.0779237113273674</v>
       </c>
       <c r="E77">
-        <v>0.09158366383314022</v>
+        <v>-0.01661532357121042</v>
       </c>
       <c r="F77">
-        <v>0.1940113322202764</v>
+        <v>0.004375014739261844</v>
       </c>
       <c r="G77">
-        <v>0.1215952167783106</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.1169478320566675</v>
+      </c>
+      <c r="H77">
+        <v>0.05632690160405038</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.05001463994419144</v>
+        <v>0.03632690128486463</v>
       </c>
       <c r="C78">
-        <v>-0.01008500334843222</v>
+        <v>-0.01925770763622054</v>
       </c>
       <c r="D78">
-        <v>0.02668093546804766</v>
+        <v>0.04975402415673081</v>
       </c>
       <c r="E78">
-        <v>0.1041682317849945</v>
+        <v>5.434871853890664e-05</v>
       </c>
       <c r="F78">
-        <v>0.0317722549377414</v>
+        <v>0.05139038182910396</v>
       </c>
       <c r="G78">
-        <v>0.0566046626372233</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.04542921902345951</v>
+      </c>
+      <c r="H78">
+        <v>-0.03187752535225117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.2093269921339374</v>
+        <v>0.1740737476767704</v>
       </c>
       <c r="C80">
-        <v>0.1682895986199642</v>
+        <v>-0.09541136662487934</v>
       </c>
       <c r="D80">
-        <v>-0.9263105917324768</v>
+        <v>0.05408048566301701</v>
       </c>
       <c r="E80">
-        <v>0.2134771089263237</v>
+        <v>0.9595454202041203</v>
       </c>
       <c r="F80">
-        <v>0.04365458527693502</v>
+        <v>-0.09381336021277496</v>
       </c>
       <c r="G80">
-        <v>-0.04698370002684182</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.1051418999964481</v>
+      </c>
+      <c r="H80">
+        <v>-0.008423624932245962</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1543713696436809</v>
+        <v>0.1438596580254392</v>
       </c>
       <c r="C81">
-        <v>-0.104190971860007</v>
+        <v>-0.1059445315394835</v>
       </c>
       <c r="D81">
-        <v>0.02032631782128052</v>
+        <v>0.03893217019126277</v>
       </c>
       <c r="E81">
-        <v>0.07063426126189022</v>
+        <v>-0.009187249238485148</v>
       </c>
       <c r="F81">
-        <v>-0.183293560975111</v>
+        <v>0.1070592952283062</v>
       </c>
       <c r="G81">
-        <v>0.01222746598999988</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.1130600134464773</v>
+      </c>
+      <c r="H81">
+        <v>0.07608409436244883</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.05132134524005887</v>
+        <v>0.0384093710018332</v>
       </c>
       <c r="C83">
-        <v>0.01022827390781726</v>
+        <v>-0.01684967443356576</v>
       </c>
       <c r="D83">
-        <v>0.0362944760842647</v>
+        <v>0.02105906321119779</v>
       </c>
       <c r="E83">
-        <v>0.04444647228976546</v>
+        <v>-0.01446239143079254</v>
       </c>
       <c r="F83">
-        <v>0.07575502358712249</v>
+        <v>0.01303425905730843</v>
       </c>
       <c r="G83">
-        <v>0.0656978569939769</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.05487112865861634</v>
+      </c>
+      <c r="H83">
+        <v>-0.02152027327743455</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2263472562471725</v>
+        <v>0.2047077936673788</v>
       </c>
       <c r="C85">
-        <v>-0.1011663567876139</v>
+        <v>-0.1362444220734381</v>
       </c>
       <c r="D85">
-        <v>0.03350049821468376</v>
+        <v>0.08501606909208849</v>
       </c>
       <c r="E85">
-        <v>0.06497793416473793</v>
+        <v>-0.02574395282213731</v>
       </c>
       <c r="F85">
-        <v>-0.2012895822724501</v>
+        <v>0.1347998716201521</v>
       </c>
       <c r="G85">
-        <v>0.06862128985962353</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1668142864300088</v>
+      </c>
+      <c r="H85">
+        <v>0.06618406829546457</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.003031603653764816</v>
+        <v>0.00902531411637891</v>
       </c>
       <c r="C86">
-        <v>0.008871933661258604</v>
+        <v>0.001332076308887518</v>
       </c>
       <c r="D86">
-        <v>0.003462542015764649</v>
+        <v>0.01347436799012822</v>
       </c>
       <c r="E86">
-        <v>0.07198289421554885</v>
+        <v>-0.005900987677656729</v>
       </c>
       <c r="F86">
-        <v>0.07144930175604439</v>
+        <v>0.01007225634816113</v>
       </c>
       <c r="G86">
-        <v>0.05448701958420069</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.07042274939812238</v>
+      </c>
+      <c r="H86">
+        <v>-0.04087927513132837</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02877747238538956</v>
+        <v>0.02677908709828968</v>
       </c>
       <c r="C87">
-        <v>-0.00887486722344951</v>
+        <v>-0.009237114002100526</v>
       </c>
       <c r="D87">
-        <v>0.008808865918047934</v>
+        <v>0.02445571351033867</v>
       </c>
       <c r="E87">
-        <v>0.039829732238313</v>
+        <v>-0.002601929607375429</v>
       </c>
       <c r="F87">
-        <v>0.06180761876337227</v>
+        <v>0.02923206565441362</v>
       </c>
       <c r="G87">
-        <v>0.0114528455895077</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.08540770009215999</v>
+      </c>
+      <c r="H87">
+        <v>-0.03036296362714135</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.00792178032511061</v>
+        <v>0.03921090858813909</v>
       </c>
       <c r="C88">
-        <v>-0.02076286174811527</v>
+        <v>0.001525973067428404</v>
       </c>
       <c r="D88">
-        <v>-0.02101799912004873</v>
+        <v>-0.01103127744777708</v>
       </c>
       <c r="E88">
-        <v>-0.00191207546041122</v>
+        <v>0.005746049054890873</v>
       </c>
       <c r="F88">
-        <v>0.03119385750274307</v>
+        <v>0.01126925559182129</v>
       </c>
       <c r="G88">
-        <v>0.0883277152526724</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.005721271844082256</v>
+      </c>
+      <c r="H88">
+        <v>-0.01264504854695312</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.117729341691094</v>
+        <v>0.1802901864114742</v>
       </c>
       <c r="C89">
-        <v>-0.09981090718446171</v>
+        <v>-0.06664603014007217</v>
       </c>
       <c r="D89">
-        <v>-0.02805417748843935</v>
+        <v>-0.3303529200368859</v>
       </c>
       <c r="E89">
-        <v>-0.3117649944155463</v>
+        <v>-0.05887034801032209</v>
       </c>
       <c r="F89">
-        <v>0.09682967592981274</v>
+        <v>-0.1964511722784572</v>
       </c>
       <c r="G89">
-        <v>0.03633426635527019</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.01295692144515869</v>
+      </c>
+      <c r="H89">
+        <v>0.01701748695230042</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.1126254891598856</v>
+        <v>0.1417225259240744</v>
       </c>
       <c r="C90">
-        <v>-0.1007670786090644</v>
+        <v>-0.05250852399154624</v>
       </c>
       <c r="D90">
-        <v>-0.0822429016075471</v>
+        <v>-0.2814063661462082</v>
       </c>
       <c r="E90">
-        <v>-0.2799522644906727</v>
+        <v>-0.03134163479454239</v>
       </c>
       <c r="F90">
-        <v>0.06145437555630718</v>
+        <v>-0.1830566909228445</v>
       </c>
       <c r="G90">
-        <v>-0.02024418642128079</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02100773898160109</v>
+      </c>
+      <c r="H90">
+        <v>0.03678495505021848</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2848226806158864</v>
+        <v>0.2246331804388269</v>
       </c>
       <c r="C91">
-        <v>-0.1057654202409118</v>
+        <v>-0.1616510695784368</v>
       </c>
       <c r="D91">
-        <v>0.06012220683678157</v>
+        <v>0.07792822873715687</v>
       </c>
       <c r="E91">
-        <v>0.05211214207253204</v>
+        <v>-0.03148941348644884</v>
       </c>
       <c r="F91">
-        <v>-0.2492794956834833</v>
+        <v>0.1379583723003421</v>
       </c>
       <c r="G91">
-        <v>0.02670861289684012</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.2160167716672989</v>
+      </c>
+      <c r="H91">
+        <v>0.1202794475268766</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1819797732230477</v>
+        <v>0.199910049831459</v>
       </c>
       <c r="C92">
-        <v>-0.09493395618046389</v>
+        <v>-0.1375097430389289</v>
       </c>
       <c r="D92">
-        <v>-0.1038332699362423</v>
+        <v>-0.2476526923288029</v>
       </c>
       <c r="E92">
-        <v>-0.4311722497085173</v>
+        <v>-0.02224714336759714</v>
       </c>
       <c r="F92">
-        <v>0.1244070568930856</v>
+        <v>-0.1591806933238376</v>
       </c>
       <c r="G92">
-        <v>0.3550065581542015</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.02929846938269369</v>
+      </c>
+      <c r="H92">
+        <v>0.1289092822983043</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.1217224507999121</v>
+        <v>0.1616725365315266</v>
       </c>
       <c r="C93">
-        <v>-0.08492607104093543</v>
+        <v>-0.06712570556268599</v>
       </c>
       <c r="D93">
-        <v>-0.08744524771998283</v>
+        <v>-0.3045857679881857</v>
       </c>
       <c r="E93">
-        <v>-0.3969501748550155</v>
+        <v>-0.04714613060243809</v>
       </c>
       <c r="F93">
-        <v>0.01750819403029082</v>
+        <v>-0.225101448363051</v>
       </c>
       <c r="G93">
-        <v>-0.03148844862671377</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.02565374385144622</v>
+      </c>
+      <c r="H93">
+        <v>-0.02120826325693879</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2596535469433377</v>
+        <v>0.246445065223533</v>
       </c>
       <c r="C94">
-        <v>-0.1321780874448834</v>
+        <v>-0.1549664794896355</v>
       </c>
       <c r="D94">
-        <v>0.02698319053318974</v>
+        <v>0.05484902806143523</v>
       </c>
       <c r="E94">
-        <v>0.0792069923859491</v>
+        <v>-0.04611529617234754</v>
       </c>
       <c r="F94">
-        <v>-0.2990402035598782</v>
+        <v>0.1504523458830774</v>
       </c>
       <c r="G94">
-        <v>0.002189656993322102</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.2312350144045001</v>
+      </c>
+      <c r="H94">
+        <v>0.1274478611807157</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.09001615905380884</v>
+        <v>0.06580938302195471</v>
       </c>
       <c r="C95">
-        <v>-0.02530918888678284</v>
+        <v>-0.05050475973014599</v>
       </c>
       <c r="D95">
-        <v>0.06583525233610478</v>
+        <v>0.06855577448757001</v>
       </c>
       <c r="E95">
-        <v>0.09548849821904651</v>
+        <v>-0.0787428922504686</v>
       </c>
       <c r="F95">
-        <v>0.05680380307332738</v>
+        <v>0.03277810144253358</v>
       </c>
       <c r="G95">
-        <v>0.3414941526942047</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.06634508520892884</v>
+      </c>
+      <c r="H95">
+        <v>-0.01177472005314402</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1828626667755507</v>
+        <v>0.160441779586908</v>
       </c>
       <c r="C98">
-        <v>-0.06044093056683084</v>
+        <v>-0.1070422967020767</v>
       </c>
       <c r="D98">
-        <v>0.04526240597356909</v>
+        <v>0.004308641423627615</v>
       </c>
       <c r="E98">
-        <v>-0.07224813893587725</v>
+        <v>-0.06170729161516054</v>
       </c>
       <c r="F98">
-        <v>0.09202388696411326</v>
+        <v>0.03459657018354179</v>
       </c>
       <c r="G98">
-        <v>-0.2770844546943712</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.1645655939302437</v>
+      </c>
+      <c r="H98">
+        <v>-0.3685627595758981</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.003657443779556051</v>
+        <v>0.01425070957645274</v>
       </c>
       <c r="C101">
-        <v>-0.02701268595635475</v>
+        <v>-0.003586193305420027</v>
       </c>
       <c r="D101">
-        <v>0.01095006357372954</v>
+        <v>0.005255790957857903</v>
       </c>
       <c r="E101">
-        <v>0.119488519940366</v>
+        <v>0.003242183239817967</v>
       </c>
       <c r="F101">
-        <v>0.1859207667543554</v>
+        <v>0.03772871212427656</v>
       </c>
       <c r="G101">
-        <v>-0.02084226583512606</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.0948454380591307</v>
+      </c>
+      <c r="H101">
+        <v>0.07031680644006288</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.09606809038939756</v>
+        <v>0.1065741625258161</v>
       </c>
       <c r="C102">
-        <v>-0.02908488809080263</v>
+        <v>-0.06280523859480638</v>
       </c>
       <c r="D102">
-        <v>0.01347607465628789</v>
+        <v>0.04345353017409935</v>
       </c>
       <c r="E102">
-        <v>0.08230333296163428</v>
+        <v>-0.00683388002670917</v>
       </c>
       <c r="F102">
-        <v>-0.140013730244093</v>
+        <v>0.0709968504249778</v>
       </c>
       <c r="G102">
-        <v>0.07848757198948485</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.1002905970236301</v>
+      </c>
+      <c r="H102">
+        <v>0.06210106624100537</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.02638919106683894</v>
+        <v>0.02226681784314376</v>
       </c>
       <c r="C103">
-        <v>-0.009448640931360108</v>
+        <v>-0.01419035966932626</v>
       </c>
       <c r="D103">
-        <v>0.008484330754449794</v>
+        <v>0.01226783415738846</v>
       </c>
       <c r="E103">
-        <v>0.01757430218507091</v>
+        <v>0.005456082408738488</v>
       </c>
       <c r="F103">
-        <v>-0.02777057816796222</v>
+        <v>0.01801115222983512</v>
       </c>
       <c r="G103">
-        <v>0.03318311324632239</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.01067319945877436</v>
+      </c>
+      <c r="H103">
+        <v>0.008592844423616672</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.4701728163323102</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.8598049845326242</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.06081437263383863</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.02240147961941702</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1542314751758305</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.03996114464304804</v>
+      </c>
+      <c r="H104">
+        <v>0.03498016115179071</v>
       </c>
     </row>
   </sheetData>
